--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NCSMBP01\Home\My Documents\2019_Picnic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF222557-63E7-487B-868C-EF99A9FF9AD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9ACFA9-BC9A-4561-A027-EB1CA4137306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{83EC9931-F329-4730-AB01-14A91EA11502}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{83EC9931-F329-4730-AB01-14A91EA11502}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Song Name</t>
+  </si>
+  <si>
+    <t>Cheese</t>
   </si>
 </sst>
 </file>
@@ -166,13 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DDE208-F1AD-4711-BA50-C9CBF4F6006D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368DB5B9-0609-40DC-81FD-953C2E21E183}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +597,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -629,6 +633,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
